--- a/Product test cases.xlsx
+++ b/Product test cases.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11014"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexander.kobchenko/Documents/GitHub/Home-work-repository/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76BD7950-69B8-6F44-80A4-766A9851F1FE}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="360" windowWidth="19815" windowHeight="7650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="46">
   <si>
     <t>Test ID</t>
   </si>
@@ -142,13 +148,25 @@
   </si>
   <si>
     <t>Проверить возможность добавления товара в отложенные при нажатии кнопки "Отложить""</t>
+  </si>
+  <si>
+    <t>яндекс маркет у тебя везде, учитывая что ты его и. тестишь - проще убрать</t>
+  </si>
+  <si>
+    <t xml:space="preserve">обязательно первого? С любым другим не получится? :) </t>
+  </si>
+  <si>
+    <t>тест даты здесь нет, ты просто конкретизировал шаг (а не подставил какое-то значение в какое-то поле, поэтому лучше переместить в тест степс)</t>
+  </si>
+  <si>
+    <t>правильно</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -308,6 +326,36 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -316,55 +364,33 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -402,9 +428,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -436,9 +462,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -470,9 +514,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -645,22 +707,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="2" max="2" width="36.85546875" customWidth="1"/>
-    <col min="3" max="3" width="34.140625" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="36.83203125" customWidth="1"/>
+    <col min="3" max="3" width="34.1640625" customWidth="1"/>
+    <col min="4" max="4" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="24.75" customHeight="1">
+    <row r="1" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -671,67 +733,73 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="24.75" customHeight="1">
-      <c r="A2" s="22" t="s">
+    <row r="2" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="14" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="25.5" customHeight="1">
-      <c r="A3" s="23"/>
-      <c r="B3" s="25"/>
+      <c r="D2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="17"/>
+      <c r="B3" s="15"/>
       <c r="C3" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="23.25" customHeight="1">
-      <c r="A4" s="14" t="s">
+    <row r="4" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="16"/>
-    </row>
-    <row r="5" spans="1:3" ht="36.75" customHeight="1">
-      <c r="A5" s="11" t="s">
+      <c r="B4" s="19"/>
+      <c r="C4" s="20"/>
+    </row>
+    <row r="5" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="13"/>
-    </row>
-    <row r="6" spans="1:3" ht="23.25" customHeight="1">
-      <c r="A6" s="14" t="s">
+      <c r="B5" s="22"/>
+      <c r="C5" s="23"/>
+    </row>
+    <row r="6" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="16"/>
-    </row>
-    <row r="7" spans="1:3" ht="23.25" customHeight="1">
-      <c r="A7" s="17" t="s">
+      <c r="B6" s="19"/>
+      <c r="C6" s="20"/>
+    </row>
+    <row r="7" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="19"/>
-    </row>
-    <row r="8" spans="1:3" ht="21" customHeight="1">
-      <c r="A8" s="17" t="s">
+      <c r="B7" s="24"/>
+      <c r="C7" s="25"/>
+    </row>
+    <row r="8" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="21"/>
-    </row>
-    <row r="9" spans="1:3" ht="21" customHeight="1">
-      <c r="A9" s="17" t="s">
+      <c r="B8" s="12"/>
+      <c r="C8" s="13"/>
+    </row>
+    <row r="9" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="21"/>
-    </row>
-    <row r="10" spans="1:3" ht="24.75" customHeight="1">
+      <c r="B9" s="12"/>
+      <c r="C9" s="13"/>
+      <c r="D9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>3</v>
       </c>
@@ -742,7 +810,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="61.5" customHeight="1">
+    <row r="11" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>15</v>
       </c>
@@ -751,7 +819,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="64.5" customHeight="1">
+    <row r="12" spans="1:4" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>13</v>
       </c>
@@ -761,9 +829,12 @@
       <c r="C12" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="50.25" customHeight="1"/>
-    <row r="15" spans="1:3" ht="22.5" customHeight="1">
+      <c r="D12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>0</v>
       </c>
@@ -774,67 +845,67 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="21.75" customHeight="1">
-      <c r="A16" s="22" t="s">
+    <row r="16" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="14" t="s">
         <v>26</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="20.25" customHeight="1">
-      <c r="A17" s="23"/>
-      <c r="B17" s="25"/>
+    <row r="17" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="17"/>
+      <c r="B17" s="15"/>
       <c r="C17" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="19.5" customHeight="1">
-      <c r="A18" s="14" t="s">
+    <row r="18" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="15"/>
-      <c r="C18" s="16"/>
-    </row>
-    <row r="19" spans="1:3" ht="34.5" customHeight="1">
-      <c r="A19" s="11" t="s">
+      <c r="B18" s="19"/>
+      <c r="C18" s="20"/>
+    </row>
+    <row r="19" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="13"/>
-    </row>
-    <row r="20" spans="1:3" ht="21" customHeight="1">
-      <c r="A20" s="14" t="s">
+      <c r="B19" s="22"/>
+      <c r="C19" s="23"/>
+    </row>
+    <row r="20" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="15"/>
-      <c r="C20" s="16"/>
-    </row>
-    <row r="21" spans="1:3" ht="21">
-      <c r="A21" s="17" t="s">
+      <c r="B20" s="19"/>
+      <c r="C20" s="20"/>
+    </row>
+    <row r="21" spans="1:4" ht="21" x14ac:dyDescent="0.2">
+      <c r="A21" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="18"/>
-      <c r="C21" s="19"/>
-    </row>
-    <row r="22" spans="1:3" ht="21.75" customHeight="1">
-      <c r="A22" s="17" t="s">
+      <c r="B21" s="24"/>
+      <c r="C21" s="25"/>
+    </row>
+    <row r="22" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="20"/>
-      <c r="C22" s="21"/>
-    </row>
-    <row r="23" spans="1:3" ht="24" customHeight="1">
-      <c r="A23" s="17" t="s">
+      <c r="B22" s="12"/>
+      <c r="C22" s="13"/>
+    </row>
+    <row r="23" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="20"/>
-      <c r="C23" s="21"/>
-    </row>
-    <row r="24" spans="1:3" ht="21">
+      <c r="B23" s="12"/>
+      <c r="C23" s="13"/>
+    </row>
+    <row r="24" spans="1:4" ht="21" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
         <v>3</v>
       </c>
@@ -845,7 +916,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="34.5" customHeight="1">
+    <row r="25" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>18</v>
       </c>
@@ -854,7 +925,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="39.75" customHeight="1">
+    <row r="26" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>19</v>
       </c>
@@ -865,7 +936,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="45">
+    <row r="27" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>22</v>
       </c>
@@ -874,7 +945,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="31.5" customHeight="1">
+    <row r="28" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>18</v>
       </c>
@@ -882,9 +953,12 @@
       <c r="C28" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" ht="32.25" customHeight="1"/>
-    <row r="31" spans="1:3" ht="21">
+      <c r="D28" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:4" ht="21" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
         <v>0</v>
       </c>
@@ -895,67 +969,67 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="22" t="s">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B32" s="24" t="s">
+      <c r="B32" s="14" t="s">
         <v>28</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="20.25" customHeight="1">
-      <c r="A33" s="23"/>
-      <c r="B33" s="25"/>
+    <row r="33" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="17"/>
+      <c r="B33" s="15"/>
       <c r="C33" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="20.25" customHeight="1">
-      <c r="A34" s="14" t="s">
+    <row r="34" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B34" s="15"/>
-      <c r="C34" s="16"/>
-    </row>
-    <row r="35" spans="1:3" ht="23.25" customHeight="1">
-      <c r="A35" s="11" t="s">
+      <c r="B34" s="19"/>
+      <c r="C34" s="20"/>
+    </row>
+    <row r="35" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="B35" s="12"/>
-      <c r="C35" s="13"/>
-    </row>
-    <row r="36" spans="1:3" ht="21.75" customHeight="1">
-      <c r="A36" s="14" t="s">
+      <c r="B35" s="22"/>
+      <c r="C35" s="23"/>
+    </row>
+    <row r="36" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B36" s="15"/>
-      <c r="C36" s="16"/>
-    </row>
-    <row r="37" spans="1:3" ht="21">
-      <c r="A37" s="17" t="s">
+      <c r="B36" s="19"/>
+      <c r="C36" s="20"/>
+    </row>
+    <row r="37" spans="1:4" ht="21" x14ac:dyDescent="0.2">
+      <c r="A37" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B37" s="18"/>
-      <c r="C37" s="19"/>
-    </row>
-    <row r="38" spans="1:3" ht="23.25" customHeight="1">
-      <c r="A38" s="17" t="s">
+      <c r="B37" s="24"/>
+      <c r="C37" s="25"/>
+    </row>
+    <row r="38" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B38" s="20"/>
-      <c r="C38" s="21"/>
-    </row>
-    <row r="39" spans="1:3" ht="23.25" customHeight="1">
+      <c r="B38" s="12"/>
+      <c r="C38" s="13"/>
+    </row>
+    <row r="39" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="8" t="s">
         <v>40</v>
       </c>
       <c r="B39" s="9"/>
       <c r="C39" s="10"/>
     </row>
-    <row r="40" spans="1:3" ht="22.5" customHeight="1">
+    <row r="40" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
         <v>3</v>
       </c>
@@ -966,7 +1040,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="33" customHeight="1">
+    <row r="41" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>30</v>
       </c>
@@ -975,7 +1049,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="33" customHeight="1">
+    <row r="42" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>35</v>
       </c>
@@ -984,7 +1058,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="45">
+    <row r="43" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>38</v>
       </c>
@@ -992,10 +1066,22 @@
       <c r="C43" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" ht="38.25" customHeight="1"/>
+      <c r="D43" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="A34:C34"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="B2:B3"/>
@@ -1010,15 +1096,6 @@
     <mergeCell ref="A18:C18"/>
     <mergeCell ref="A19:C19"/>
     <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="A34:C34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1026,24 +1103,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
